--- a/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/GroupAvgMinMaxWithSorting.xlsx
+++ b/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/GroupAvgMinMaxWithSorting.xlsx
@@ -38,22 +38,22 @@
     <t>9</t>
   </si>
   <si>
+    <t>Group-3</t>
+  </si>
+  <si>
+    <t>6,83</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>Group-2</t>
   </si>
   <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>Group-3</t>
-  </si>
-  <si>
-    <t>6,83</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>Group-4</t>
@@ -162,21 +162,21 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>13</v>
